--- a/dataset/task_sheet_answers_v2/PeriodRate/4_PeriodRate/4_PeriodRate_gt1.xlsx
+++ b/dataset/task_sheet_answers_v2/PeriodRate/4_PeriodRate/4_PeriodRate_gt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\PeriodRate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\PeriodRate\4_PeriodRate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986A43D5-FF9B-49DE-B322-2C87881C25BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BF7A4-338A-449A-8C20-997772B53DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8112" windowHeight="12360" xr2:uid="{4E8402DD-46D4-4467-9DC8-4AC67E7E4E71}"/>
+    <workbookView xWindow="6075" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{4E8402DD-46D4-4467-9DC8-4AC67E7E4E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,24 @@
   </si>
   <si>
     <t>High Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -89,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,16 +403,16 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>11.25</v>
       </c>
@@ -436,7 +435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>7.7759999999999998</v>
       </c>
@@ -448,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>15.496</v>
       </c>
@@ -460,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>9.32</v>
       </c>
@@ -472,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>18.584</v>
       </c>
@@ -484,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>18.198</v>
       </c>
@@ -496,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>17.812000000000001</v>
       </c>
@@ -508,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>14.724</v>
       </c>
@@ -520,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>16.268000000000001</v>
       </c>
@@ -532,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>13.565999999999999</v>
       </c>
@@ -544,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>14.338000000000001</v>
       </c>
@@ -556,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>9.7059999999999995</v>
       </c>
@@ -568,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13.565999999999999</v>
       </c>
@@ -580,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>9.7059999999999995</v>
       </c>
@@ -592,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>13.565999999999999</v>
       </c>
@@ -604,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>7.7759999999999998</v>
       </c>
@@ -616,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>15.11</v>
       </c>
@@ -628,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>15.496</v>
       </c>
@@ -640,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>14.724</v>
       </c>
@@ -652,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>12.794</v>
       </c>
@@ -664,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>9.32</v>
       </c>
@@ -676,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>16.268000000000001</v>
       </c>
@@ -688,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>10.478</v>
       </c>
@@ -700,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>18.584</v>
       </c>
@@ -712,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="C26">
         <f>COUNTIF(C2:C25,TRUE)</f>
         <v>17</v>
